--- a/dtpu_configurations/only_integer16/30mhz/mxu_16x16/power.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_16x16/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.016611339524388313</v>
+        <v>0.018117615953087807</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.007550953887403011</v>
+        <v>0.008500768803060055</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.004778189584612846</v>
+        <v>0.005139508750289679</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0038834144361317158</v>
+        <v>0.003978007007390261</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>1.6670714830979705E-4</v>
+        <v>2.5925389491021633E-4</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>6.827717297710478E-4</v>
@@ -196,13 +196,13 @@
         <v>5.878788651898503E-4</v>
       </c>
       <c r="I2" t="n" s="4">
-        <v>1.2575920820236206</v>
+        <v>1.2575732469558716</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12730203568935394</v>
+        <v>0.1273263394832611</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4191594123840332</v>
+        <v>1.4221693277359009</v>
       </c>
     </row>
   </sheetData>
